--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H2">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I2">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J2">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N2">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O2">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P2">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q2">
-        <v>262.653725470925</v>
+        <v>48.057126064416</v>
       </c>
       <c r="R2">
-        <v>1575.92235282555</v>
+        <v>192.228504257664</v>
       </c>
       <c r="S2">
-        <v>0.02304076046993376</v>
+        <v>0.001613637668067706</v>
       </c>
       <c r="T2">
-        <v>0.01726618720745777</v>
+        <v>0.0008244943132759572</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H3">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I3">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J3">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>346.487229</v>
       </c>
       <c r="O3">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P3">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q3">
-        <v>1549.93862658503</v>
+        <v>161.306782973721</v>
       </c>
       <c r="R3">
-        <v>13949.44763926527</v>
+        <v>967.840697842326</v>
       </c>
       <c r="S3">
-        <v>0.1359651936183824</v>
+        <v>0.005416276886227526</v>
       </c>
       <c r="T3">
-        <v>0.1528335288527033</v>
+        <v>0.004151200960594361</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H4">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I4">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J4">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N4">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O4">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P4">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q4">
-        <v>3219.405258572791</v>
+        <v>511.560963255279</v>
       </c>
       <c r="R4">
-        <v>28974.64732715512</v>
+        <v>3069.365779531674</v>
       </c>
       <c r="S4">
-        <v>0.2824157368620004</v>
+        <v>0.01717693310905127</v>
       </c>
       <c r="T4">
-        <v>0.3174532578484885</v>
+        <v>0.013164929105392</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H5">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I5">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J5">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N5">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O5">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P5">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q5">
-        <v>1185.554371933045</v>
+        <v>169.213786835814</v>
       </c>
       <c r="R5">
-        <v>7113.32623159827</v>
+        <v>676.855147343256</v>
       </c>
       <c r="S5">
-        <v>0.1040003306970639</v>
+        <v>0.005681774229042571</v>
       </c>
       <c r="T5">
-        <v>0.07793532604083293</v>
+        <v>0.002903124185724528</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H6">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I6">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J6">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N6">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O6">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P6">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q6">
-        <v>243.2280491629789</v>
+        <v>938.9539689840659</v>
       </c>
       <c r="R6">
-        <v>2189.05244246681</v>
+        <v>5633.723813904396</v>
       </c>
       <c r="S6">
-        <v>0.02133668277609804</v>
+        <v>0.03152771746906954</v>
       </c>
       <c r="T6">
-        <v>0.02398378905585495</v>
+        <v>0.02416381100747352</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H7">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I7">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J7">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N7">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O7">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P7">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q7">
-        <v>2027.772659924097</v>
+        <v>263.88193017669</v>
       </c>
       <c r="R7">
-        <v>18249.95393931687</v>
+        <v>1583.29158106014</v>
       </c>
       <c r="S7">
-        <v>0.1778822061671594</v>
+        <v>0.008860492861865311</v>
       </c>
       <c r="T7">
-        <v>0.1999509180631615</v>
+        <v>0.006790953869630075</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H8">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I8">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J8">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N8">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O8">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P8">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q8">
-        <v>2.28807030721</v>
+        <v>461.7635699922132</v>
       </c>
       <c r="R8">
-        <v>13.72842184326</v>
+        <v>2770.581419953279</v>
       </c>
       <c r="S8">
-        <v>0.0002007162845007092</v>
+        <v>0.01550486163658836</v>
       </c>
       <c r="T8">
-        <v>0.0001504119166681551</v>
+        <v>0.01188340217305952</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H9">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I9">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J9">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>346.487229</v>
       </c>
       <c r="O9">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P9">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q9">
-        <v>13.502068333996</v>
+        <v>1549.93862658503</v>
       </c>
       <c r="R9">
-        <v>121.518615005964</v>
+        <v>13949.44763926527</v>
       </c>
       <c r="S9">
-        <v>0.001184441308702157</v>
+        <v>0.05204304867707499</v>
       </c>
       <c r="T9">
-        <v>0.001331387394894208</v>
+        <v>0.05983108642669677</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H10">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I10">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J10">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N10">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O10">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P10">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q10">
-        <v>28.04538776599822</v>
+        <v>4915.404561329415</v>
       </c>
       <c r="R10">
-        <v>252.408489893984</v>
+        <v>44238.64105196473</v>
       </c>
       <c r="S10">
-        <v>0.002460224238754636</v>
+        <v>0.1650469473210133</v>
       </c>
       <c r="T10">
-        <v>0.002765448584092564</v>
+        <v>0.1897455744935237</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H11">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I11">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J11">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N11">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O11">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P11">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q11">
-        <v>10.327787093594</v>
+        <v>1625.914171323353</v>
       </c>
       <c r="R11">
-        <v>61.966722561564</v>
+        <v>9755.485027940118</v>
       </c>
       <c r="S11">
-        <v>0.0009059839839748023</v>
+        <v>0.05459411676794235</v>
       </c>
       <c r="T11">
-        <v>0.0006789224294345666</v>
+        <v>0.04184260788922354</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H12">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I12">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J12">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N12">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O12">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P12">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q12">
-        <v>2.118846310565778</v>
+        <v>9022.06961346949</v>
       </c>
       <c r="R12">
-        <v>19.069616795092</v>
+        <v>81198.62652122539</v>
       </c>
       <c r="S12">
-        <v>0.0001858714557610689</v>
+        <v>0.3029384518897226</v>
       </c>
       <c r="T12">
-        <v>0.000208931342948587</v>
+        <v>0.3482720009246471</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H13">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I13">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J13">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N13">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O13">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P13">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q13">
-        <v>17.66465107100933</v>
+        <v>2535.546174182256</v>
       </c>
       <c r="R13">
-        <v>158.981859639084</v>
+        <v>22819.9155676403</v>
       </c>
       <c r="S13">
-        <v>0.001549595359374178</v>
+        <v>0.08513727621375539</v>
       </c>
       <c r="T13">
-        <v>0.001741843781958248</v>
+        <v>0.09787773508208411</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H14">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I14">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J14">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N14">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O14">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P14">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q14">
-        <v>60.02781965530125</v>
+        <v>10.536977203584</v>
       </c>
       <c r="R14">
-        <v>240.111278621205</v>
+        <v>63.22186322150399</v>
       </c>
       <c r="S14">
-        <v>0.005265817614923879</v>
+        <v>0.0003538052462913231</v>
       </c>
       <c r="T14">
-        <v>0.002630717357274966</v>
+        <v>0.0002711672074968155</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H15">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I15">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J15">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>346.487229</v>
       </c>
       <c r="O15">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P15">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q15">
-        <v>354.2285044181895</v>
+        <v>35.368030387404</v>
       </c>
       <c r="R15">
-        <v>2125.371026509137</v>
+        <v>318.3122734866361</v>
       </c>
       <c r="S15">
-        <v>0.03107397051874618</v>
+        <v>0.001187569685336154</v>
       </c>
       <c r="T15">
-        <v>0.02328608003003285</v>
+        <v>0.001365284822608243</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H16">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I16">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J16">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N16">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O16">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P16">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q16">
-        <v>735.7743657069453</v>
+        <v>112.164556008596</v>
       </c>
       <c r="R16">
-        <v>4414.646194241672</v>
+        <v>1009.481004077364</v>
       </c>
       <c r="S16">
-        <v>0.06454430025607155</v>
+        <v>0.003766204253557666</v>
       </c>
       <c r="T16">
-        <v>0.04836793355193017</v>
+        <v>0.004329801922124183</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H17">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I17">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J17">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N17">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O17">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P17">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q17">
-        <v>270.9508266153592</v>
+        <v>37.101715404936</v>
       </c>
       <c r="R17">
-        <v>1083.803306461437</v>
+        <v>222.610292429616</v>
       </c>
       <c r="S17">
-        <v>0.02376860668540609</v>
+        <v>0.001245782476610946</v>
       </c>
       <c r="T17">
-        <v>0.01187441167508865</v>
+        <v>0.0009548059529137115</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H18">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I18">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J18">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N18">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O18">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P18">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q18">
-        <v>55.58820627458517</v>
+        <v>205.874495140184</v>
       </c>
       <c r="R18">
-        <v>333.529237647511</v>
+        <v>1852.870456261656</v>
       </c>
       <c r="S18">
-        <v>0.004876361618056569</v>
+        <v>0.006912748794160749</v>
       </c>
       <c r="T18">
-        <v>0.003654227155327414</v>
+        <v>0.00794721448998559</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H19">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I19">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J19">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N19">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O19">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P19">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q19">
-        <v>463.4343994688494</v>
+        <v>57.85859684956</v>
       </c>
       <c r="R19">
-        <v>2780.606396813097</v>
+        <v>520.7273716460401</v>
       </c>
       <c r="S19">
-        <v>0.04065383414053789</v>
+        <v>0.001942746454976304</v>
       </c>
       <c r="T19">
-        <v>0.03046499753718775</v>
+        <v>0.002233470828622851</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H20">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I20">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J20">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N20">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O20">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P20">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q20">
-        <v>16.85396466155</v>
+        <v>155.017072298848</v>
       </c>
       <c r="R20">
-        <v>101.1237879693</v>
+        <v>620.0682891953919</v>
       </c>
       <c r="S20">
-        <v>0.001478479553409146</v>
+        <v>0.005205084189173223</v>
       </c>
       <c r="T20">
-        <v>0.00110793672738677</v>
+        <v>0.002659557594013633</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H21">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I21">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J21">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>346.487229</v>
       </c>
       <c r="O21">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P21">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q21">
-        <v>99.45646418378</v>
+        <v>520.324607114763</v>
       </c>
       <c r="R21">
-        <v>895.1081776540199</v>
+        <v>3121.947642688578</v>
       </c>
       <c r="S21">
-        <v>0.008724614754031688</v>
+        <v>0.01747119427278043</v>
       </c>
       <c r="T21">
-        <v>0.009807022115391939</v>
+        <v>0.01339045989918214</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H22">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I22">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J22">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N22">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O22">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P22">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q22">
-        <v>206.5828016027911</v>
+        <v>1650.13369130557</v>
       </c>
       <c r="R22">
-        <v>1859.24521442512</v>
+        <v>9900.802147833423</v>
       </c>
       <c r="S22">
-        <v>0.01812205343900464</v>
+        <v>0.05540734745704847</v>
       </c>
       <c r="T22">
-        <v>0.02037034113976279</v>
+        <v>0.04246589286684096</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H23">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I23">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J23">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N23">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O23">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P23">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q23">
-        <v>76.07465476867</v>
+        <v>545.830097969842</v>
       </c>
       <c r="R23">
-        <v>456.44792861202</v>
+        <v>2183.320391879368</v>
       </c>
       <c r="S23">
-        <v>0.006673493380743464</v>
+        <v>0.01832760463596247</v>
       </c>
       <c r="T23">
-        <v>0.005000954121718629</v>
+        <v>0.009364559403485051</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H24">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I24">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J24">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N24">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O24">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P24">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q24">
-        <v>15.60745783422889</v>
+        <v>3028.768201831131</v>
       </c>
       <c r="R24">
-        <v>140.46712050806</v>
+        <v>18172.60921098679</v>
       </c>
       <c r="S24">
-        <v>0.001369132293320037</v>
+        <v>0.1016984338965547</v>
       </c>
       <c r="T24">
-        <v>0.001538991813166553</v>
+        <v>0.07794480329390337</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H25">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I25">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J25">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N25">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O25">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P25">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q25">
-        <v>130.1181191728467</v>
+        <v>851.1995535007367</v>
       </c>
       <c r="R25">
-        <v>1171.06307255562</v>
+        <v>5107.19732100442</v>
       </c>
       <c r="S25">
-        <v>0.01141434567998057</v>
+        <v>0.02858114446398893</v>
       </c>
       <c r="T25">
-        <v>0.01283045081899685</v>
+        <v>0.02190546695562953</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H26">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I26">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J26">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N26">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O26">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P26">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q26">
-        <v>10.901769446435</v>
+        <v>4.493794527157333</v>
       </c>
       <c r="R26">
-        <v>65.41061667861</v>
+        <v>26.962767162944</v>
       </c>
       <c r="S26">
-        <v>0.0009563354110564734</v>
+        <v>0.0001508903406303953</v>
       </c>
       <c r="T26">
-        <v>0.0007166545679761418</v>
+        <v>0.0001156469914900497</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H27">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I27">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J27">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>346.487229</v>
       </c>
       <c r="O27">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P27">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q27">
-        <v>64.33212981410598</v>
+        <v>15.083705537219</v>
       </c>
       <c r="R27">
-        <v>578.9891683269539</v>
+        <v>135.753349834971</v>
       </c>
       <c r="S27">
-        <v>0.005643404413586291</v>
+        <v>0.0005064729712774139</v>
       </c>
       <c r="T27">
-        <v>0.006343545640747753</v>
+        <v>0.0005822646614212145</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H28">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I28">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J28">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N28">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O28">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P28">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q28">
-        <v>133.6254181077138</v>
+        <v>47.83577473822545</v>
       </c>
       <c r="R28">
-        <v>1202.628762969424</v>
+        <v>430.5219726440291</v>
       </c>
       <c r="S28">
-        <v>0.01172201630033761</v>
+        <v>0.001606205246134296</v>
       </c>
       <c r="T28">
-        <v>0.01317629217281749</v>
+        <v>0.001846567550198254</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H29">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I29">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J29">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N29">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O29">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P29">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q29">
-        <v>49.20790826725899</v>
+        <v>15.82308497147933</v>
       </c>
       <c r="R29">
-        <v>295.247449603554</v>
+        <v>94.93850982887601</v>
       </c>
       <c r="S29">
-        <v>0.004316663034493659</v>
+        <v>0.0005312994768099719</v>
       </c>
       <c r="T29">
-        <v>0.003234802608287977</v>
+        <v>0.0004072042373064506</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H30">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I30">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J30">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N30">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O30">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P30">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q30">
-        <v>10.09548259834022</v>
+        <v>87.80105163628511</v>
       </c>
       <c r="R30">
-        <v>90.85934338506199</v>
+        <v>790.2094647265659</v>
       </c>
       <c r="S30">
-        <v>0.0008856055476071688</v>
+        <v>0.002948138930038389</v>
       </c>
       <c r="T30">
-        <v>0.0009954769850306392</v>
+        <v>0.003389316337240949</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.391799</v>
+      </c>
+      <c r="I31">
+        <v>0.006571546613249707</v>
+      </c>
+      <c r="J31">
+        <v>0.007293527128937232</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>188.9396033333333</v>
+      </c>
+      <c r="N31">
+        <v>566.81881</v>
+      </c>
+      <c r="O31">
+        <v>0.1260798556444414</v>
+      </c>
+      <c r="P31">
+        <v>0.1305990002424397</v>
+      </c>
+      <c r="Q31">
+        <v>24.67544921546556</v>
+      </c>
+      <c r="R31">
+        <v>222.07904293919</v>
+      </c>
+      <c r="S31">
+        <v>0.0008285396483592411</v>
+      </c>
+      <c r="T31">
+        <v>0.0009525273512803143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.115013</v>
+      </c>
+      <c r="H32">
+        <v>0.345039</v>
+      </c>
+      <c r="I32">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J32">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>34.408928</v>
+      </c>
+      <c r="N32">
+        <v>68.81785599999999</v>
+      </c>
+      <c r="O32">
+        <v>0.02296116112547488</v>
+      </c>
+      <c r="P32">
+        <v>0.01585611315973826</v>
+      </c>
+      <c r="Q32">
+        <v>3.957474036063999</v>
+      </c>
+      <c r="R32">
+        <v>23.744844216384</v>
+      </c>
+      <c r="S32">
+        <v>0.0001328820447238787</v>
+      </c>
+      <c r="T32">
+        <v>0.000101844880402286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.115013</v>
+      </c>
+      <c r="H33">
+        <v>0.345039</v>
+      </c>
+      <c r="I33">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J33">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>115.495743</v>
+      </c>
+      <c r="N33">
+        <v>346.487229</v>
+      </c>
+      <c r="O33">
+        <v>0.07707058947984194</v>
+      </c>
+      <c r="P33">
+        <v>0.07983306994376788</v>
+      </c>
+      <c r="Q33">
+        <v>13.283511889659</v>
+      </c>
+      <c r="R33">
+        <v>119.551607006931</v>
+      </c>
+      <c r="S33">
+        <v>0.0004460269871454178</v>
+      </c>
+      <c r="T33">
+        <v>0.0005127731732651549</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.115013</v>
+      </c>
+      <c r="H34">
+        <v>0.345039</v>
+      </c>
+      <c r="I34">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J34">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>366.2779236666667</v>
+      </c>
+      <c r="N34">
+        <v>1098.833771</v>
+      </c>
+      <c r="O34">
+        <v>0.2444181469999509</v>
+      </c>
+      <c r="P34">
+        <v>0.253178951357013</v>
+      </c>
+      <c r="Q34">
+        <v>42.12672283467433</v>
+      </c>
+      <c r="R34">
+        <v>379.140505512069</v>
+      </c>
+      <c r="S34">
+        <v>0.001414509613145852</v>
+      </c>
+      <c r="T34">
+        <v>0.001626185418933829</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.115013</v>
+      </c>
+      <c r="H35">
+        <v>0.345039</v>
+      </c>
+      <c r="I35">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J35">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>121.157162</v>
+      </c>
+      <c r="N35">
+        <v>242.314324</v>
+      </c>
+      <c r="O35">
+        <v>0.08084846811232432</v>
+      </c>
+      <c r="P35">
+        <v>0.05583090733848903</v>
+      </c>
+      <c r="Q35">
+        <v>13.934648673106</v>
+      </c>
+      <c r="R35">
+        <v>83.607892038636</v>
+      </c>
+      <c r="S35">
+        <v>0.0004678905259560026</v>
+      </c>
+      <c r="T35">
+        <v>0.0003586056698357586</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H31">
-        <v>1.671026</v>
-      </c>
-      <c r="I31">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J31">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>151.102183</v>
-      </c>
-      <c r="N31">
-        <v>453.306549</v>
-      </c>
-      <c r="O31">
-        <v>0.2388832034840335</v>
-      </c>
-      <c r="P31">
-        <v>0.2532874216646838</v>
-      </c>
-      <c r="Q31">
-        <v>84.16522548325266</v>
-      </c>
-      <c r="R31">
-        <v>757.4870293492739</v>
-      </c>
-      <c r="S31">
-        <v>0.007383222136981477</v>
-      </c>
-      <c r="T31">
-        <v>0.008299211463379384</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.115013</v>
+      </c>
+      <c r="H36">
+        <v>0.345039</v>
+      </c>
+      <c r="I36">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J36">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>672.2915446666666</v>
+      </c>
+      <c r="N36">
+        <v>2016.874634</v>
+      </c>
+      <c r="O36">
+        <v>0.4486217786379665</v>
+      </c>
+      <c r="P36">
+        <v>0.4647019579585521</v>
+      </c>
+      <c r="Q36">
+        <v>77.32226742674732</v>
+      </c>
+      <c r="R36">
+        <v>695.9004068407259</v>
+      </c>
+      <c r="S36">
+        <v>0.002596287658420556</v>
+      </c>
+      <c r="T36">
+        <v>0.002984811905301646</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.115013</v>
+      </c>
+      <c r="H37">
+        <v>0.345039</v>
+      </c>
+      <c r="I37">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J37">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>188.9396033333333</v>
+      </c>
+      <c r="N37">
+        <v>566.81881</v>
+      </c>
+      <c r="O37">
+        <v>0.1260798556444414</v>
+      </c>
+      <c r="P37">
+        <v>0.1305990002424397</v>
+      </c>
+      <c r="Q37">
+        <v>21.73051059817666</v>
+      </c>
+      <c r="R37">
+        <v>195.57459538359</v>
+      </c>
+      <c r="S37">
+        <v>0.000729656001496237</v>
+      </c>
+      <c r="T37">
+        <v>0.0008388461551928625</v>
       </c>
     </row>
   </sheetData>
